--- a/Imagen Corredores.xlsx
+++ b/Imagen Corredores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puerc\OneDrive\Documentos\Eric\UNI\Semestre 8\Análisis de Datos\projects\f1\Formula-1-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565E8B0-E334-4D44-ACD6-3B4674379914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED08A2-F1A5-4D1B-8052-83C01D7A0AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15300" yWindow="-165" windowWidth="38700" windowHeight="18795" xr2:uid="{2710377D-6189-43D9-92D9-66761C48EFE2}"/>
+    <workbookView xWindow="8835" yWindow="1545" windowWidth="38700" windowHeight="18795" xr2:uid="{2710377D-6189-43D9-92D9-66761C48EFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="500">
   <si>
     <t>year</t>
   </si>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD85CB0-E2CB-4557-9FC0-4E1B0E3A03C6}">
   <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I300" sqref="I299:I300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,11 +1984,11 @@
         <v>13</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>VLOOKUP(G2,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G2,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J2" t="str">
-        <f>VLOOKUP(B2,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B2,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Jaime_Alguersuari_Canada_2010_cropped.jpg/220px-Jaime_Alguersuari_Canada_2010_cropped.jpg</v>
       </c>
     </row>
@@ -2018,11 +2018,11 @@
         <v>18</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>VLOOKUP(G3,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G3,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J3" t="str">
-        <f>VLOOKUP(B3,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B3,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
         <v>24</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>VLOOKUP(G4,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G4,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J4" t="str">
-        <f>VLOOKUP(B4,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B4,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
       </c>
     </row>
@@ -2086,11 +2086,11 @@
         <v>30</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>VLOOKUP(G5,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G5,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f3/Flag_of_Switzerland.svg/1200px-Flag_of_Switzerland.svg.png</v>
       </c>
       <c r="J5" t="str">
-        <f>VLOOKUP(B5,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B5,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d6/Sebastien_Buemi_-_Red_Bull_Racing_%28cropped%29.jpg/220px-Sebastien_Buemi_-_Red_Bull_Racing_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -2120,11 +2120,11 @@
         <v>36</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>VLOOKUP(G6,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G6,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J6" t="str">
-        <f>VLOOKUP(B6,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B6,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -2154,11 +2154,11 @@
         <v>42</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>VLOOKUP(G7,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G7,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_India.svg/200px-Flag_of_India.svg.png</v>
       </c>
       <c r="J7" t="str">
-        <f>VLOOKUP(B7,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B7,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
       </c>
     </row>
@@ -2188,12 +2188,12 @@
         <v>47</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>VLOOKUP(G8,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G8,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J8" t="str">
-        <f>VLOOKUP(B8,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B8,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Pedro_de_la_Rosa_2010_Malaysia.jpg/220px-Pedro_de_la_Rosa_2010_Malaysia.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2222,11 +2222,11 @@
         <v>52</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>VLOOKUP(G9,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G9,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J9" t="str">
-        <f>VLOOKUP(B9,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B9,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/TechCrunch_Disrupt_Berlin_2018_%28Day_1%29_08_%28cropped%29.jpg/220px-TechCrunch_Disrupt_Berlin_2018_%28Day_1%29_08_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -2256,12 +2256,12 @@
         <v>58</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>VLOOKUP(G10,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G10,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J10" t="str">
-        <f>VLOOKUP(B10,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B10,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2290,11 +2290,11 @@
         <v>63</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>VLOOKUP(G11,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G11,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J11" t="str">
-        <f>VLOOKUP(B11,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B11,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -2324,11 +2324,11 @@
         <v>68</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>VLOOKUP(G12,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G12,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J12" t="str">
-        <f>VLOOKUP(B12,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B12,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Nick_Heidfeld_Goodwood_Festival_of_Speed_2019_%2848242681251%29.jpg/220px-Nick_Heidfeld_Goodwood_Festival_of_Speed_2019_%2848242681251%29.jpg</v>
       </c>
     </row>
@@ -2358,11 +2358,11 @@
         <v>400</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>VLOOKUP(G13,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G13,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J13" t="str">
-        <f>VLOOKUP(B13,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B13,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -2392,11 +2392,11 @@
         <v>79</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f>VLOOKUP(G14,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
+        <f>VLOOKUP(G14,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://www.sitographics.com/enciclog/banderas/europa/image_2012/Austria.gif</v>
       </c>
       <c r="J14" t="str">
-        <f>VLOOKUP(B14,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B14,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7f/Christian_Klien_%2813994163352%29.jpg/220px-Christian_Klien_%2813994163352%29.jpg</v>
       </c>
     </row>
@@ -2426,11 +2426,11 @@
         <v>85</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f>VLOOKUP(G15,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G15,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J15" t="str">
-        <f>VLOOKUP(B15,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B15,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Kamui_Kobayashi_2010_Malaysia.jpg/220px-Kamui_Kobayashi_2010_Malaysia.jpg</v>
       </c>
     </row>
@@ -2460,11 +2460,11 @@
         <v>91</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f>VLOOKUP(G16,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G16,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J16" t="str">
-        <f>VLOOKUP(B16,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B16,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/29/Effect_20190609_091716.jpg/220px-Effect_20190609_091716.jpg</v>
       </c>
     </row>
@@ -2494,11 +2494,11 @@
         <v>97</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>VLOOKUP(G17,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G17,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/12/Flag_of_Poland.svg/1200px-Flag_of_Poland.svg.png</v>
       </c>
       <c r="J17" t="str">
-        <f>VLOOKUP(B17,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B17,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
       </c>
     </row>
@@ -2528,11 +2528,11 @@
         <v>103</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f>VLOOKUP(G18,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G18,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J18" t="str">
-        <f>VLOOKUP(B18,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B18,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
       </c>
     </row>
@@ -2562,11 +2562,11 @@
         <v>108</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f>VLOOKUP(G19,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G19,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J19" t="str">
-        <f>VLOOKUP(B19,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B19,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
         <v>114</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f>VLOOKUP(G20,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G20,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J20" t="str">
-        <f>VLOOKUP(B20,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B20,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Vitaly_Petrov_in_Goodwood.jpg/220px-Vitaly_Petrov_in_Goodwood.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2630,12 +2630,12 @@
         <v>118</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f>VLOOKUP(G21,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G21,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J21" t="str">
-        <f>VLOOKUP(B21,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B21,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2664,12 +2664,12 @@
         <v>123</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f>VLOOKUP(G22,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G22,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J22" t="str">
-        <f>VLOOKUP(B22,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B22,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/A%C3%A9cio_Neves%2C_Michael_Schumacher_e_Didi_%28Cropped%29.jpg/220px-A%C3%A9cio_Neves%2C_Michael_Schumacher_e_Didi_%28Cropped%29.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,12 +2698,12 @@
         <v>128</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f>VLOOKUP(G23,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G23,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J23" t="str">
-        <f>VLOOKUP(B23,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B23,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,11 +2732,11 @@
         <v>133</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f>VLOOKUP(G24,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G24,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J24" t="str">
-        <f>VLOOKUP(B24,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B24,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e4/Adrian_Sutil.jpg/220px-Adrian_Sutil.jpg</v>
       </c>
     </row>
@@ -2766,11 +2766,11 @@
         <v>138</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f>VLOOKUP(G25,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G25,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J25" t="str">
-        <f>VLOOKUP(B25,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B25,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
         <v>143</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f>VLOOKUP(G26,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G26,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J26" t="str">
-        <f>VLOOKUP(B26,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B26,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2834,12 +2834,12 @@
         <v>149</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f>VLOOKUP(G27,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G27,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J27" t="str">
-        <f>VLOOKUP(B27,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B27,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b2/Mark_Webber_2017_Malaysian_GP_podium.jpg/180px-Mark_Webber_2017_Malaysian_GP_podium.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2868,12 +2868,12 @@
         <v>154</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f>VLOOKUP(G28,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G28,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J28" t="str">
-        <f>VLOOKUP(B28,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B28,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/98/Sakon_Yamamoto_2010_Motorsport_Japan.jpg/220px-Sakon_Yamamoto_2010_Motorsport_Japan.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2902,11 +2902,11 @@
         <v>13</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f>VLOOKUP(G29,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G29,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J29" t="str">
-        <f>VLOOKUP(B29,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B29,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Jaime_Alguersuari_Canada_2010_cropped.jpg/220px-Jaime_Alguersuari_Canada_2010_cropped.jpg</v>
       </c>
     </row>
@@ -2936,11 +2936,11 @@
         <v>18</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f>VLOOKUP(G30,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G30,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J30" t="str">
-        <f>VLOOKUP(B30,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B30,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -2970,11 +2970,11 @@
         <v>24</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f>VLOOKUP(G31,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G31,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J31" t="str">
-        <f>VLOOKUP(B31,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B31,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
       </c>
     </row>
@@ -3004,11 +3004,11 @@
         <v>30</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f>VLOOKUP(G32,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G32,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f3/Flag_of_Switzerland.svg/1200px-Flag_of_Switzerland.svg.png</v>
       </c>
       <c r="J32" t="str">
-        <f>VLOOKUP(B32,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B32,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d6/Sebastien_Buemi_-_Red_Bull_Racing_%28cropped%29.jpg/220px-Sebastien_Buemi_-_Red_Bull_Racing_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -3038,11 +3038,11 @@
         <v>36</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f>VLOOKUP(G33,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G33,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J33" t="str">
-        <f>VLOOKUP(B33,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B33,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -3072,11 +3072,11 @@
         <v>42</v>
       </c>
       <c r="I34" s="4" t="str">
-        <f>VLOOKUP(G34,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G34,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_India.svg/200px-Flag_of_India.svg.png</v>
       </c>
       <c r="J34" t="str">
-        <f>VLOOKUP(B34,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B34,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
         <v>160</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f>VLOOKUP(G35,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G35,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
       </c>
       <c r="J35" t="str">
-        <f>VLOOKUP(B35,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
+        <f>VLOOKUP(B35,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/46/DAmbrosioBerlin.jpg/220px-DAmbrosioBerlin.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3140,12 +3140,12 @@
         <v>47</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f>VLOOKUP(G36,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G36,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J36" t="str">
-        <f>VLOOKUP(B36,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B36,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Pedro_de_la_Rosa_2010_Malaysia.jpg/220px-Pedro_de_la_Rosa_2010_Malaysia.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3174,12 +3174,12 @@
         <v>165</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f>VLOOKUP(G37,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G37,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J37" t="str">
-        <f>VLOOKUP(B37,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B37,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg/220px-2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3208,12 +3208,12 @@
         <v>58</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f>VLOOKUP(G38,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G38,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J38" t="str">
-        <f>VLOOKUP(B38,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B38,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3242,11 +3242,11 @@
         <v>63</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f>VLOOKUP(G39,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G39,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J39" t="str">
-        <f>VLOOKUP(B39,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B39,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -3276,11 +3276,11 @@
         <v>68</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f>VLOOKUP(G40,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G40,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J40" t="str">
-        <f>VLOOKUP(B40,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B40,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Nick_Heidfeld_Goodwood_Festival_of_Speed_2019_%2848242681251%29.jpg/220px-Nick_Heidfeld_Goodwood_Festival_of_Speed_2019_%2848242681251%29.jpg</v>
       </c>
     </row>
@@ -3310,12 +3310,12 @@
         <v>170</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f>VLOOKUP(G41,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G41,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_India.svg/200px-Flag_of_India.svg.png</v>
       </c>
       <c r="J41" t="str">
-        <f>VLOOKUP(B41,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B41,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a6/Narain_Karthikeyan_2011_Malaysia2.jpg/220px-Narain_Karthikeyan_2011_Malaysia2.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3344,11 +3344,11 @@
         <v>85</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f>VLOOKUP(G42,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G42,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J42" t="str">
-        <f>VLOOKUP(B42,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B42,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Kamui_Kobayashi_2010_Malaysia.jpg/220px-Kamui_Kobayashi_2010_Malaysia.jpg</v>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>91</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f>VLOOKUP(G43,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G43,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J43" t="str">
-        <f>VLOOKUP(B43,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B43,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/29/Effect_20190609_091716.jpg/220px-Effect_20190609_091716.jpg</v>
       </c>
     </row>
@@ -3412,11 +3412,11 @@
         <v>103</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f>VLOOKUP(G44,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G44,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J44" t="str">
-        <f>VLOOKUP(B44,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B44,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
       </c>
     </row>
@@ -3446,12 +3446,12 @@
         <v>176</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f>VLOOKUP(G45,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg/220px-Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg.png</v>
+        <f>VLOOKUP(G45,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Flag_of_Venezuela.svg/800px-Flag_of_Venezuela.svg.png</v>
       </c>
       <c r="J45" t="str">
-        <f>VLOOKUP(B45,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
+        <f>VLOOKUP(B45,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Pastor_Maldonado_2015_Malaysia.jpg/220px-Pastor_Maldonado_2015_Malaysia.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3480,11 +3480,11 @@
         <v>108</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f>VLOOKUP(G46,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G46,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J46" t="str">
-        <f>VLOOKUP(B46,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B46,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -3514,12 +3514,12 @@
         <v>182</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f>VLOOKUP(G47,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G47,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J47" t="str">
-        <f>VLOOKUP(B47,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B47,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3548,12 +3548,12 @@
         <v>114</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f>VLOOKUP(G48,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G48,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J48" t="str">
-        <f>VLOOKUP(B48,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B48,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Vitaly_Petrov_in_Goodwood.jpg/220px-Vitaly_Petrov_in_Goodwood.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3582,12 +3582,12 @@
         <v>187</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f>VLOOKUP(G49,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G49,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J49" t="str">
-        <f>VLOOKUP(B49,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B49,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3616,12 +3616,12 @@
         <v>118</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f>VLOOKUP(G50,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G50,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J50" t="str">
-        <f>VLOOKUP(B50,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B50,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3650,12 +3650,12 @@
         <v>123</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f>VLOOKUP(G51,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G51,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J51" t="str">
-        <f>VLOOKUP(B51,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B51,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/A%C3%A9cio_Neves%2C_Michael_Schumacher_e_Didi_%28Cropped%29.jpg/220px-A%C3%A9cio_Neves%2C_Michael_Schumacher_e_Didi_%28Cropped%29.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3684,12 +3684,12 @@
         <v>128</v>
       </c>
       <c r="I52" s="4" t="str">
-        <f>VLOOKUP(G52,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G52,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J52" t="str">
-        <f>VLOOKUP(B52,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B52,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3718,11 +3718,11 @@
         <v>133</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f>VLOOKUP(G53,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G53,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J53" t="str">
-        <f>VLOOKUP(B53,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B53,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e4/Adrian_Sutil.jpg/220px-Adrian_Sutil.jpg</v>
       </c>
     </row>
@@ -3752,11 +3752,11 @@
         <v>138</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f>VLOOKUP(G54,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G54,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J54" t="str">
-        <f>VLOOKUP(B54,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B54,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
         <v>143</v>
       </c>
       <c r="I55" s="4" t="str">
-        <f>VLOOKUP(G55,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G55,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J55" t="str">
-        <f>VLOOKUP(B55,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B55,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3820,12 +3820,12 @@
         <v>149</v>
       </c>
       <c r="I56" s="4" t="str">
-        <f>VLOOKUP(G56,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G56,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J56" t="str">
-        <f>VLOOKUP(B56,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B56,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b2/Mark_Webber_2017_Malaysian_GP_podium.jpg/180px-Mark_Webber_2017_Malaysian_GP_podium.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3854,11 +3854,11 @@
         <v>18</v>
       </c>
       <c r="I57" s="4" t="str">
-        <f>VLOOKUP(G57,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G57,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J57" t="str">
-        <f>VLOOKUP(B57,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B57,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -3888,11 +3888,11 @@
         <v>36</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f>VLOOKUP(G58,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G58,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J58" t="str">
-        <f>VLOOKUP(B58,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B58,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
         <v>160</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f>VLOOKUP(G59,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G59,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
       </c>
       <c r="J59" t="str">
-        <f>VLOOKUP(B59,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
+        <f>VLOOKUP(B59,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/46/DAmbrosioBerlin.jpg/220px-DAmbrosioBerlin.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3956,12 +3956,12 @@
         <v>47</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f>VLOOKUP(G60,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G60,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J60" t="str">
-        <f>VLOOKUP(B60,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B60,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Pedro_de_la_Rosa_2010_Malaysia.jpg/220px-Pedro_de_la_Rosa_2010_Malaysia.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3990,12 +3990,12 @@
         <v>165</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f>VLOOKUP(G61,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G61,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J61" t="str">
-        <f>VLOOKUP(B61,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B61,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg/220px-2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4024,12 +4024,12 @@
         <v>58</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f>VLOOKUP(G62,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G62,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J62" t="str">
-        <f>VLOOKUP(B62,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B62,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4058,12 +4058,12 @@
         <v>193</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f>VLOOKUP(G63,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G63,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J63" t="str">
-        <f>VLOOKUP(B63,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B63,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4092,11 +4092,11 @@
         <v>63</v>
       </c>
       <c r="I64" s="4" t="str">
-        <f>VLOOKUP(G64,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G64,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J64" t="str">
-        <f>VLOOKUP(B64,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B64,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -4126,11 +4126,11 @@
         <v>73</v>
       </c>
       <c r="I65" s="4" t="str">
-        <f>VLOOKUP(G65,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G65,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J65" t="str">
-        <f>VLOOKUP(B65,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B65,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -4160,12 +4160,12 @@
         <v>170</v>
       </c>
       <c r="I66" s="4" t="str">
-        <f>VLOOKUP(G66,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G66,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_India.svg/200px-Flag_of_India.svg.png</v>
       </c>
       <c r="J66" t="str">
-        <f>VLOOKUP(B66,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B66,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a6/Narain_Karthikeyan_2011_Malaysia2.jpg/220px-Narain_Karthikeyan_2011_Malaysia2.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4194,11 +4194,11 @@
         <v>85</v>
       </c>
       <c r="I67" s="4" t="str">
-        <f>VLOOKUP(G67,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G67,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J67" t="str">
-        <f>VLOOKUP(B67,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B67,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Kamui_Kobayashi_2010_Malaysia.jpg/220px-Kamui_Kobayashi_2010_Malaysia.jpg</v>
       </c>
     </row>
@@ -4228,11 +4228,11 @@
         <v>91</v>
       </c>
       <c r="I68" s="4" t="str">
-        <f>VLOOKUP(G68,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G68,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J68" t="str">
-        <f>VLOOKUP(B68,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B68,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/29/Effect_20190609_091716.jpg/220px-Effect_20190609_091716.jpg</v>
       </c>
     </row>
@@ -4262,12 +4262,12 @@
         <v>176</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f>VLOOKUP(G69,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg/220px-Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg.png</v>
+        <f>VLOOKUP(G69,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Flag_of_Venezuela.svg/800px-Flag_of_Venezuela.svg.png</v>
       </c>
       <c r="J69" t="str">
-        <f>VLOOKUP(B69,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
+        <f>VLOOKUP(B69,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Pastor_Maldonado_2015_Malaysia.jpg/220px-Pastor_Maldonado_2015_Malaysia.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4296,11 +4296,11 @@
         <v>108</v>
       </c>
       <c r="I70" s="4" t="str">
-        <f>VLOOKUP(G70,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G70,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J70" t="str">
-        <f>VLOOKUP(B70,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B70,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -4330,12 +4330,12 @@
         <v>182</v>
       </c>
       <c r="I71" s="4" t="str">
-        <f>VLOOKUP(G71,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G71,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J71" t="str">
-        <f>VLOOKUP(B71,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B71,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4364,12 +4364,12 @@
         <v>114</v>
       </c>
       <c r="I72" s="4" t="str">
-        <f>VLOOKUP(G72,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G72,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J72" t="str">
-        <f>VLOOKUP(B72,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B72,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Vitaly_Petrov_in_Goodwood.jpg/220px-Vitaly_Petrov_in_Goodwood.jpg</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4398,12 +4398,12 @@
         <v>198</v>
       </c>
       <c r="I73" s="4" t="str">
-        <f>VLOOKUP(G73,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G73,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J73" t="str">
-        <f>VLOOKUP(B73,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B73,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ef/Charles_Pic_Moscow_2013.jpg/220px-Charles_Pic_Moscow_2013.jpg</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4432,12 +4432,12 @@
         <v>203</v>
       </c>
       <c r="I74" s="4" t="str">
-        <f>VLOOKUP(G74,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G74,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J74" t="str">
-        <f>VLOOKUP(B74,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B74,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4466,12 +4466,12 @@
         <v>187</v>
       </c>
       <c r="I75" s="4" t="str">
-        <f>VLOOKUP(G75,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G75,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J75" t="str">
-        <f>VLOOKUP(B75,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B75,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4500,12 +4500,12 @@
         <v>118</v>
       </c>
       <c r="I76" s="4" t="str">
-        <f>VLOOKUP(G76,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G76,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J76" t="str">
-        <f>VLOOKUP(B76,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B76,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4534,12 +4534,12 @@
         <v>123</v>
       </c>
       <c r="I77" s="4" t="str">
-        <f>VLOOKUP(G77,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G77,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J77" t="str">
-        <f>VLOOKUP(B77,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B77,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/A%C3%A9cio_Neves%2C_Michael_Schumacher_e_Didi_%28Cropped%29.jpg/220px-A%C3%A9cio_Neves%2C_Michael_Schumacher_e_Didi_%28Cropped%29.jpg</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4568,12 +4568,12 @@
         <v>128</v>
       </c>
       <c r="I78" s="4" t="str">
-        <f>VLOOKUP(G78,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G78,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J78" t="str">
-        <f>VLOOKUP(B78,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B78,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4602,11 +4602,11 @@
         <v>208</v>
       </c>
       <c r="I79" s="4" t="str">
-        <f>VLOOKUP(G79,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G79,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J79" t="str">
-        <f>VLOOKUP(B79,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B79,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b6/Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg/220px-Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg</v>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
         <v>143</v>
       </c>
       <c r="I80" s="4" t="str">
-        <f>VLOOKUP(G80,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G80,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J80" t="str">
-        <f>VLOOKUP(B80,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B80,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4670,12 +4670,12 @@
         <v>149</v>
       </c>
       <c r="I81" s="4" t="str">
-        <f>VLOOKUP(G81,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G81,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J81" t="str">
-        <f>VLOOKUP(B81,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B81,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b2/Mark_Webber_2017_Malaysian_GP_podium.jpg/180px-Mark_Webber_2017_Malaysian_GP_podium.jpg</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4704,11 +4704,11 @@
         <v>18</v>
       </c>
       <c r="I82" s="4" t="str">
-        <f>VLOOKUP(G82,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G82,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J82" t="str">
-        <f>VLOOKUP(B82,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B82,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
         <v>213</v>
       </c>
       <c r="I83" s="4" t="str">
-        <f>VLOOKUP(G83,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G83,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J83" t="str">
-        <f>VLOOKUP(B83,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B83,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/03/Jules_Bianchi_2012-1.JPG/220px-Jules_Bianchi_2012-1.JPG</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4772,12 +4772,12 @@
         <v>218</v>
       </c>
       <c r="I84" s="4" t="str">
-        <f>VLOOKUP(G84,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G84,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J84" t="str">
-        <f>VLOOKUP(B84,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B84,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4806,11 +4806,11 @@
         <v>36</v>
       </c>
       <c r="I85" s="4" t="str">
-        <f>VLOOKUP(G85,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G85,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J85" t="str">
-        <f>VLOOKUP(B85,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B85,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -4840,12 +4840,12 @@
         <v>223</v>
       </c>
       <c r="I86" s="4" t="str">
-        <f>VLOOKUP(G86,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G86,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J86" t="str">
-        <f>VLOOKUP(B86,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B86,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Max_Chilton_2.jpg/220px-Max_Chilton_2.jpg</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4874,12 +4874,12 @@
         <v>165</v>
       </c>
       <c r="I87" s="4" t="str">
-        <f>VLOOKUP(G87,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G87,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J87" t="str">
-        <f>VLOOKUP(B87,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B87,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg/220px-2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4908,12 +4908,12 @@
         <v>193</v>
       </c>
       <c r="I88" s="4" t="str">
-        <f>VLOOKUP(G88,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G88,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J88" t="str">
-        <f>VLOOKUP(B88,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B88,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4942,12 +4942,12 @@
         <v>228</v>
       </c>
       <c r="I89" s="4" t="str">
-        <f>VLOOKUP(G89,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G89,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J89" t="str">
-        <f>VLOOKUP(B89,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B89,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_%28cropped%29.jpg/220px-Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4976,11 +4976,11 @@
         <v>63</v>
       </c>
       <c r="I90" s="4" t="str">
-        <f>VLOOKUP(G90,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G90,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J90" t="str">
-        <f>VLOOKUP(B90,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B90,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -5010,11 +5010,11 @@
         <v>73</v>
       </c>
       <c r="I91" s="4" t="str">
-        <f>VLOOKUP(G91,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G91,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J91" t="str">
-        <f>VLOOKUP(B91,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B91,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -5044,11 +5044,11 @@
         <v>91</v>
       </c>
       <c r="I92" s="4" t="str">
-        <f>VLOOKUP(G92,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G92,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J92" t="str">
-        <f>VLOOKUP(B92,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B92,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/29/Effect_20190609_091716.jpg/220px-Effect_20190609_091716.jpg</v>
       </c>
     </row>
@@ -5078,12 +5078,12 @@
         <v>176</v>
       </c>
       <c r="I93" s="4" t="str">
-        <f>VLOOKUP(G93,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg/220px-Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg.png</v>
+        <f>VLOOKUP(G93,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Flag_of_Venezuela.svg/800px-Flag_of_Venezuela.svg.png</v>
       </c>
       <c r="J93" t="str">
-        <f>VLOOKUP(B93,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
+        <f>VLOOKUP(B93,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Pastor_Maldonado_2015_Malaysia.jpg/220px-Pastor_Maldonado_2015_Malaysia.jpg</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -5112,11 +5112,11 @@
         <v>108</v>
       </c>
       <c r="I94" s="4" t="str">
-        <f>VLOOKUP(G94,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G94,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J94" t="str">
-        <f>VLOOKUP(B94,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B94,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
         <v>182</v>
       </c>
       <c r="I95" s="4" t="str">
-        <f>VLOOKUP(G95,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G95,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J95" t="str">
-        <f>VLOOKUP(B95,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B95,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -5180,12 +5180,12 @@
         <v>198</v>
       </c>
       <c r="I96" s="4" t="str">
-        <f>VLOOKUP(G96,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G96,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J96" t="str">
-        <f>VLOOKUP(B96,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B96,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ef/Charles_Pic_Moscow_2013.jpg/220px-Charles_Pic_Moscow_2013.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -5214,12 +5214,12 @@
         <v>203</v>
       </c>
       <c r="I97" s="4" t="str">
-        <f>VLOOKUP(G97,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G97,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J97" t="str">
-        <f>VLOOKUP(B97,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B97,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -5248,12 +5248,12 @@
         <v>187</v>
       </c>
       <c r="I98" s="4" t="str">
-        <f>VLOOKUP(G98,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G98,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J98" t="str">
-        <f>VLOOKUP(B98,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B98,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5282,12 +5282,12 @@
         <v>118</v>
       </c>
       <c r="I99" s="4" t="str">
-        <f>VLOOKUP(G99,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G99,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J99" t="str">
-        <f>VLOOKUP(B99,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B99,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5316,11 +5316,11 @@
         <v>133</v>
       </c>
       <c r="I100" s="4" t="str">
-        <f>VLOOKUP(G100,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G100,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J100" t="str">
-        <f>VLOOKUP(B100,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B100,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e4/Adrian_Sutil.jpg/220px-Adrian_Sutil.jpg</v>
       </c>
     </row>
@@ -5350,12 +5350,12 @@
         <v>234</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f>VLOOKUP(G101,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G101,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J101" t="str">
-        <f>VLOOKUP(B101,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B101,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b7/Giedo_van_der_Garde.jpg/220px-Giedo_van_der_Garde.jpg</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5384,11 +5384,11 @@
         <v>208</v>
       </c>
       <c r="I102" s="4" t="str">
-        <f>VLOOKUP(G102,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G102,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J102" t="str">
-        <f>VLOOKUP(B102,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B102,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b6/Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg/220px-Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg</v>
       </c>
     </row>
@@ -5418,12 +5418,12 @@
         <v>143</v>
       </c>
       <c r="I103" s="4" t="str">
-        <f>VLOOKUP(G103,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G103,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J103" t="str">
-        <f>VLOOKUP(B103,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B103,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -5452,12 +5452,12 @@
         <v>149</v>
       </c>
       <c r="I104" s="4" t="str">
-        <f>VLOOKUP(G104,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G104,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J104" t="str">
-        <f>VLOOKUP(B104,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B104,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b2/Mark_Webber_2017_Malaysian_GP_podium.jpg/180px-Mark_Webber_2017_Malaysian_GP_podium.jpg</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -5486,11 +5486,11 @@
         <v>18</v>
       </c>
       <c r="I105" s="4" t="str">
-        <f>VLOOKUP(G105,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G105,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J105" t="str">
-        <f>VLOOKUP(B105,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B105,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
         <v>213</v>
       </c>
       <c r="I106" s="4" t="str">
-        <f>VLOOKUP(G106,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G106,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J106" t="str">
-        <f>VLOOKUP(B106,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B106,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/03/Jules_Bianchi_2012-1.JPG/220px-Jules_Bianchi_2012-1.JPG</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5554,12 +5554,12 @@
         <v>218</v>
       </c>
       <c r="I107" s="4" t="str">
-        <f>VLOOKUP(G107,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G107,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J107" t="str">
-        <f>VLOOKUP(B107,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B107,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5588,11 +5588,11 @@
         <v>36</v>
       </c>
       <c r="I108" s="4" t="str">
-        <f>VLOOKUP(G108,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G108,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J108" t="str">
-        <f>VLOOKUP(B108,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B108,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -5622,12 +5622,12 @@
         <v>223</v>
       </c>
       <c r="I109" s="4" t="str">
-        <f>VLOOKUP(G109,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G109,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J109" t="str">
-        <f>VLOOKUP(B109,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B109,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Max_Chilton_2.jpg/220px-Max_Chilton_2.jpg</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5656,12 +5656,12 @@
         <v>240</v>
       </c>
       <c r="I110" s="4" t="str">
-        <f>VLOOKUP(G110,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G110,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4c/Flag_of_Sweden.svg/1280px-Flag_of_Sweden.svg.png</v>
       </c>
       <c r="J110" t="str">
-        <f>VLOOKUP(B110,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B110,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Marcus_Ericsson_%282021%29.jpg/220px-Marcus_Ericsson_%282021%29.jpg</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5690,12 +5690,12 @@
         <v>193</v>
       </c>
       <c r="I111" s="4" t="str">
-        <f>VLOOKUP(G111,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G111,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J111" t="str">
-        <f>VLOOKUP(B111,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B111,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5724,12 +5724,12 @@
         <v>228</v>
       </c>
       <c r="I112" s="4" t="str">
-        <f>VLOOKUP(G112,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G112,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J112" t="str">
-        <f>VLOOKUP(B112,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B112,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_%28cropped%29.jpg/220px-Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5758,11 +5758,11 @@
         <v>63</v>
       </c>
       <c r="I113" s="4" t="str">
-        <f>VLOOKUP(G113,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G113,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J113" t="str">
-        <f>VLOOKUP(B113,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B113,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -5792,11 +5792,11 @@
         <v>400</v>
       </c>
       <c r="I114" s="4" t="str">
-        <f>VLOOKUP(G114,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G114,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J114" t="str">
-        <f>VLOOKUP(B114,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B114,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -5826,11 +5826,11 @@
         <v>85</v>
       </c>
       <c r="I115" s="4" t="str">
-        <f>VLOOKUP(G115,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G115,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J115" t="str">
-        <f>VLOOKUP(B115,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B115,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Kamui_Kobayashi_2010_Malaysia.jpg/220px-Kamui_Kobayashi_2010_Malaysia.jpg</v>
       </c>
     </row>
@@ -5860,12 +5860,12 @@
         <v>245</v>
       </c>
       <c r="I116" s="4" t="str">
-        <f>VLOOKUP(G116,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G116,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J116" t="str">
-        <f>VLOOKUP(B116,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B116,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Daniil_Kvyat_USA_2017.jpg/240px-Daniil_Kvyat_USA_2017.jpg</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5894,12 +5894,12 @@
         <v>250</v>
       </c>
       <c r="I117" s="4" t="str">
-        <f>VLOOKUP(G117,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G117,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J117" t="str">
-        <f>VLOOKUP(B117,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
+        <f>VLOOKUP(B117,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/57/2022_Mexico_City_ePrix_podium_-_Lotterer.jpg/220px-2022_Mexico_City_ePrix_podium_-_Lotterer.jpg</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5928,12 +5928,12 @@
         <v>256</v>
       </c>
       <c r="I118" s="4" t="str">
-        <f>VLOOKUP(G118,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G118,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J118" t="str">
-        <f>VLOOKUP(B118,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B118,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5962,12 +5962,12 @@
         <v>176</v>
       </c>
       <c r="I119" s="4" t="str">
-        <f>VLOOKUP(G119,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg/220px-Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg.png</v>
+        <f>VLOOKUP(G119,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Flag_of_Venezuela.svg/800px-Flag_of_Venezuela.svg.png</v>
       </c>
       <c r="J119" t="str">
-        <f>VLOOKUP(B119,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
+        <f>VLOOKUP(B119,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Pastor_Maldonado_2015_Malaysia.jpg/220px-Pastor_Maldonado_2015_Malaysia.jpg</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5996,11 +5996,11 @@
         <v>108</v>
       </c>
       <c r="I120" s="4" t="str">
-        <f>VLOOKUP(G120,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G120,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J120" t="str">
-        <f>VLOOKUP(B120,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B120,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
         <v>182</v>
       </c>
       <c r="I121" s="4" t="str">
-        <f>VLOOKUP(G121,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G121,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J121" t="str">
-        <f>VLOOKUP(B121,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B121,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -6064,12 +6064,12 @@
         <v>203</v>
       </c>
       <c r="I122" s="4" t="str">
-        <f>VLOOKUP(G122,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G122,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J122" t="str">
-        <f>VLOOKUP(B122,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B122,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -6098,12 +6098,12 @@
         <v>187</v>
       </c>
       <c r="I123" s="4" t="str">
-        <f>VLOOKUP(G123,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G123,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J123" t="str">
-        <f>VLOOKUP(B123,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B123,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -6132,12 +6132,12 @@
         <v>118</v>
       </c>
       <c r="I124" s="4" t="str">
-        <f>VLOOKUP(G124,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G124,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J124" t="str">
-        <f>VLOOKUP(B124,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B124,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6166,12 +6166,12 @@
         <v>261</v>
       </c>
       <c r="I125" s="4" t="str">
-        <f>VLOOKUP(G125,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G125,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J125" t="str">
-        <f>VLOOKUP(B125,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B125,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c5/Will_Stevens_2017.jpg/250px-Will_Stevens_2017.jpg</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -6200,11 +6200,11 @@
         <v>133</v>
       </c>
       <c r="I126" s="4" t="str">
-        <f>VLOOKUP(G126,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G126,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J126" t="str">
-        <f>VLOOKUP(B126,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B126,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e4/Adrian_Sutil.jpg/220px-Adrian_Sutil.jpg</v>
       </c>
     </row>
@@ -6234,11 +6234,11 @@
         <v>208</v>
       </c>
       <c r="I127" s="4" t="str">
-        <f>VLOOKUP(G127,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G127,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J127" t="str">
-        <f>VLOOKUP(B127,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B127,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b6/Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg/220px-Jean-%C3%89ric_Vergne_at_2018_Berlin_ePrix_podium.jpg</v>
       </c>
     </row>
@@ -6268,12 +6268,12 @@
         <v>143</v>
       </c>
       <c r="I128" s="4" t="str">
-        <f>VLOOKUP(G128,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G128,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J128" t="str">
-        <f>VLOOKUP(B128,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B128,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -6302,11 +6302,11 @@
         <v>18</v>
       </c>
       <c r="I129" s="4" t="str">
-        <f>VLOOKUP(G129,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G129,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J129" t="str">
-        <f>VLOOKUP(B129,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B129,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -6336,12 +6336,12 @@
         <v>218</v>
       </c>
       <c r="I130" s="4" t="str">
-        <f>VLOOKUP(G130,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G130,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J130" t="str">
-        <f>VLOOKUP(B130,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B130,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -6370,11 +6370,11 @@
         <v>36</v>
       </c>
       <c r="I131" s="4" t="str">
-        <f>VLOOKUP(G131,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G131,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J131" t="str">
-        <f>VLOOKUP(B131,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B131,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -6404,12 +6404,12 @@
         <v>240</v>
       </c>
       <c r="I132" s="4" t="str">
-        <f>VLOOKUP(G132,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G132,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4c/Flag_of_Sweden.svg/1280px-Flag_of_Sweden.svg.png</v>
       </c>
       <c r="J132" t="str">
-        <f>VLOOKUP(B132,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B132,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Marcus_Ericsson_%282021%29.jpg/220px-Marcus_Ericsson_%282021%29.jpg</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6438,12 +6438,12 @@
         <v>193</v>
       </c>
       <c r="I133" s="4" t="str">
-        <f>VLOOKUP(G133,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G133,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J133" t="str">
-        <f>VLOOKUP(B133,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B133,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -6472,11 +6472,11 @@
         <v>63</v>
       </c>
       <c r="I134" s="4" t="str">
-        <f>VLOOKUP(G134,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G134,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J134" t="str">
-        <f>VLOOKUP(B134,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B134,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -6506,11 +6506,11 @@
         <v>73</v>
       </c>
       <c r="I135" s="4" t="str">
-        <f>VLOOKUP(G135,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G135,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J135" t="str">
-        <f>VLOOKUP(B135,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B135,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -6540,12 +6540,12 @@
         <v>245</v>
       </c>
       <c r="I136" s="4" t="str">
-        <f>VLOOKUP(G136,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G136,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J136" t="str">
-        <f>VLOOKUP(B136,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B136,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Daniil_Kvyat_USA_2017.jpg/240px-Daniil_Kvyat_USA_2017.jpg</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -6574,12 +6574,12 @@
         <v>256</v>
       </c>
       <c r="I137" s="4" t="str">
-        <f>VLOOKUP(G137,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G137,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J137" t="str">
-        <f>VLOOKUP(B137,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B137,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -6608,12 +6608,12 @@
         <v>176</v>
       </c>
       <c r="I138" s="4" t="str">
-        <f>VLOOKUP(G138,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg/220px-Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg.png</v>
+        <f>VLOOKUP(G138,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Flag_of_Venezuela.svg/800px-Flag_of_Venezuela.svg.png</v>
       </c>
       <c r="J138" t="str">
-        <f>VLOOKUP(B138,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Vitantonio_Liuzzi_2011_Malaysia.jpg/220px-Vitantonio_Liuzzi_2011_Malaysia.jpg</v>
+        <f>VLOOKUP(B138,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Pastor_Maldonado_2015_Malaysia.jpg/220px-Pastor_Maldonado_2015_Malaysia.jpg</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -6642,11 +6642,11 @@
         <v>108</v>
       </c>
       <c r="I139" s="4" t="str">
-        <f>VLOOKUP(G139,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G139,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J139" t="str">
-        <f>VLOOKUP(B139,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B139,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -6676,12 +6676,12 @@
         <v>266</v>
       </c>
       <c r="I140" s="4" t="str">
-        <f>VLOOKUP(G140,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G140,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J140" t="str">
-        <f>VLOOKUP(B140,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B140,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ab/Roberto_Merhi_Austria_2022.jpg/220px-Roberto_Merhi_Austria_2022.jpg</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -6710,12 +6710,12 @@
         <v>270</v>
       </c>
       <c r="I141" s="4" t="str">
-        <f>VLOOKUP(G141,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G141,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J141" t="str">
-        <f>VLOOKUP(B141,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B141,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c8/Piloto_Felipe_Nasr_fala_%C3%A0_imprensa_ap%C3%B3s_encontro_com_Temer_%2828412246304%29_%28cropped%29.jpg/220px-Piloto_Felipe_Nasr_fala_%C3%A0_imprensa_ap%C3%B3s_encontro_com_Temer_%2828412246304%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -6744,12 +6744,12 @@
         <v>182</v>
       </c>
       <c r="I142" s="4" t="str">
-        <f>VLOOKUP(G142,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G142,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J142" t="str">
-        <f>VLOOKUP(B142,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B142,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -6778,12 +6778,12 @@
         <v>203</v>
       </c>
       <c r="I143" s="4" t="str">
-        <f>VLOOKUP(G143,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G143,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J143" t="str">
-        <f>VLOOKUP(B143,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B143,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -6812,12 +6812,12 @@
         <v>187</v>
       </c>
       <c r="I144" s="4" t="str">
-        <f>VLOOKUP(G144,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G144,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J144" t="str">
-        <f>VLOOKUP(B144,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B144,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6846,12 +6846,12 @@
         <v>118</v>
       </c>
       <c r="I145" s="4" t="str">
-        <f>VLOOKUP(G145,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G145,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J145" t="str">
-        <f>VLOOKUP(B145,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B145,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -6879,12 +6879,13 @@
       <c r="H146" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I146" t="s">
-        <v>422</v>
+      <c r="I146" s="4" t="str">
+        <f>VLOOKUP(G146,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/a/a4/Flag_of_the_United_States.svg</v>
       </c>
       <c r="J146" t="str">
-        <f>VLOOKUP(B146,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B146,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/45/Andretti_Autosport_Visit_180405-F-KS667-0012_%28cropped%29.jpg/220px-Andretti_Autosport_Visit_180405-F-KS667-0012_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -6913,12 +6914,12 @@
         <v>281</v>
       </c>
       <c r="I147" s="4" t="str">
-        <f>VLOOKUP(G147,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G147,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J147" t="str">
-        <f>VLOOKUP(B147,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B147,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -6947,12 +6948,12 @@
         <v>261</v>
       </c>
       <c r="I148" s="4" t="str">
-        <f>VLOOKUP(G148,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G148,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J148" t="str">
-        <f>VLOOKUP(B148,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B148,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c5/Will_Stevens_2017.jpg/250px-Will_Stevens_2017.jpg</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -6981,12 +6982,12 @@
         <v>284</v>
       </c>
       <c r="I149" s="4" t="str">
-        <f>VLOOKUP(G149,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G149,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J149" t="str">
-        <f>VLOOKUP(B149,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B149,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -7015,12 +7016,12 @@
         <v>143</v>
       </c>
       <c r="I150" s="4" t="str">
-        <f>VLOOKUP(G150,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G150,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J150" t="str">
-        <f>VLOOKUP(B150,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B150,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -7049,11 +7050,11 @@
         <v>18</v>
       </c>
       <c r="I151" s="4" t="str">
-        <f>VLOOKUP(G151,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G151,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J151" t="str">
-        <f>VLOOKUP(B151,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B151,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -7083,12 +7084,12 @@
         <v>218</v>
       </c>
       <c r="I152" s="4" t="str">
-        <f>VLOOKUP(G152,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G152,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J152" t="str">
-        <f>VLOOKUP(B152,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B152,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -7117,11 +7118,11 @@
         <v>36</v>
       </c>
       <c r="I153" s="4" t="str">
-        <f>VLOOKUP(G153,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G153,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J153" t="str">
-        <f>VLOOKUP(B153,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B153,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -7151,12 +7152,12 @@
         <v>240</v>
       </c>
       <c r="I154" s="4" t="str">
-        <f>VLOOKUP(G154,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G154,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4c/Flag_of_Sweden.svg/1280px-Flag_of_Sweden.svg.png</v>
       </c>
       <c r="J154" t="str">
-        <f>VLOOKUP(B154,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B154,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Marcus_Ericsson_%282021%29.jpg/220px-Marcus_Ericsson_%282021%29.jpg</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -7185,12 +7186,12 @@
         <v>193</v>
       </c>
       <c r="I155" s="4" t="str">
-        <f>VLOOKUP(G155,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G155,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J155" t="str">
-        <f>VLOOKUP(B155,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B155,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -7219,12 +7220,12 @@
         <v>228</v>
       </c>
       <c r="I156" s="4" t="str">
-        <f>VLOOKUP(G156,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G156,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J156" t="str">
-        <f>VLOOKUP(B156,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B156,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_%28cropped%29.jpg/220px-Esteban_Guti%C3%A9rrez_en_el_Gran_Premio_de_Italia_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -7253,11 +7254,11 @@
         <v>63</v>
       </c>
       <c r="I157" s="4" t="str">
-        <f>VLOOKUP(G157,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G157,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J157" t="str">
-        <f>VLOOKUP(B157,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B157,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -7287,12 +7288,12 @@
         <v>290</v>
       </c>
       <c r="I158" s="4" t="str">
-        <f>VLOOKUP(G158,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G158,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://media.gettyimages.com/id/1129852559/es/foto/indonesia-flag.jpg?s=612x612&amp;w=gi&amp;k=20&amp;c=0bQ9ht40xAYs8AA7OKTMl-VrrKsnKE47uDJJvSPasi0=</v>
       </c>
       <c r="J158" t="str">
-        <f>VLOOKUP(B158,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
+        <f>VLOOKUP(B158,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6a/Rio_Haryanto_2016_paddock.jpg/220px-Rio_Haryanto_2016_paddock.jpg</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -7321,11 +7322,11 @@
         <v>400</v>
       </c>
       <c r="I159" s="4" t="str">
-        <f>VLOOKUP(G159,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G159,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J159" t="str">
-        <f>VLOOKUP(B159,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B159,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -7355,12 +7356,12 @@
         <v>245</v>
       </c>
       <c r="I160" s="4" t="str">
-        <f>VLOOKUP(G160,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G160,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J160" t="str">
-        <f>VLOOKUP(B160,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B160,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Daniil_Kvyat_USA_2017.jpg/240px-Daniil_Kvyat_USA_2017.jpg</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -7389,12 +7390,12 @@
         <v>256</v>
       </c>
       <c r="I161" s="4" t="str">
-        <f>VLOOKUP(G161,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G161,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J161" t="str">
-        <f>VLOOKUP(B161,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B161,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -7423,11 +7424,11 @@
         <v>108</v>
       </c>
       <c r="I162" s="4" t="str">
-        <f>VLOOKUP(G162,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G162,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J162" t="str">
-        <f>VLOOKUP(B162,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B162,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -7457,12 +7458,12 @@
         <v>270</v>
       </c>
       <c r="I163" s="4" t="str">
-        <f>VLOOKUP(G163,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G163,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J163" t="str">
-        <f>VLOOKUP(B163,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B163,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c8/Piloto_Felipe_Nasr_fala_%C3%A0_imprensa_ap%C3%B3s_encontro_com_Temer_%2828412246304%29_%28cropped%29.jpg/220px-Piloto_Felipe_Nasr_fala_%C3%A0_imprensa_ap%C3%B3s_encontro_com_Temer_%2828412246304%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -7491,12 +7492,12 @@
         <v>294</v>
       </c>
       <c r="I164" s="4" t="str">
-        <f>VLOOKUP(G164,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G164,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J164" t="str">
-        <f>VLOOKUP(B164,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B164,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Esteban_Ocon_2017_Malaysia_1.jpg/220px-Esteban_Ocon_2017_Malaysia_1.jpg</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -7525,12 +7526,12 @@
         <v>299</v>
       </c>
       <c r="I165" s="4" t="str">
-        <f>VLOOKUP(G165,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G165,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J165" t="str">
-        <f>VLOOKUP(B165,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B165,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6c/Jolyon_Palmer_2016_Malaysia.jpg/220px-Jolyon_Palmer_2016_Malaysia.jpg</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -7559,12 +7560,12 @@
         <v>182</v>
       </c>
       <c r="I166" s="4" t="str">
-        <f>VLOOKUP(G166,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G166,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J166" t="str">
-        <f>VLOOKUP(B166,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B166,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -7593,12 +7594,12 @@
         <v>203</v>
       </c>
       <c r="I167" s="4" t="str">
-        <f>VLOOKUP(G167,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G167,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J167" t="str">
-        <f>VLOOKUP(B167,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B167,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -7627,12 +7628,12 @@
         <v>187</v>
       </c>
       <c r="I168" s="4" t="str">
-        <f>VLOOKUP(G168,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G168,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J168" t="str">
-        <f>VLOOKUP(B168,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B168,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7661,12 +7662,12 @@
         <v>118</v>
       </c>
       <c r="I169" s="4" t="str">
-        <f>VLOOKUP(G169,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G169,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J169" t="str">
-        <f>VLOOKUP(B169,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B169,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Nico_Rosberg_2016.jpg/220px-Nico_Rosberg_2016.jpg</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -7695,12 +7696,12 @@
         <v>281</v>
       </c>
       <c r="I170" s="4" t="str">
-        <f>VLOOKUP(G170,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G170,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J170" t="str">
-        <f>VLOOKUP(B170,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B170,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -7729,12 +7730,12 @@
         <v>304</v>
       </c>
       <c r="I171" s="4" t="str">
-        <f>VLOOKUP(G171,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G171,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
       </c>
       <c r="J171" t="str">
-        <f>VLOOKUP(B171,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
+        <f>VLOOKUP(B171,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Stoffel_Vandoorne_IAA_2019.jpg/180px-Stoffel_Vandoorne_IAA_2019.jpg</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -7763,12 +7764,12 @@
         <v>284</v>
       </c>
       <c r="I172" s="4" t="str">
-        <f>VLOOKUP(G172,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G172,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J172" t="str">
-        <f>VLOOKUP(B172,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B172,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -7797,12 +7798,12 @@
         <v>143</v>
       </c>
       <c r="I173" s="4" t="str">
-        <f>VLOOKUP(G173,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G173,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J173" t="str">
-        <f>VLOOKUP(B173,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B173,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -7831,12 +7832,12 @@
         <v>309</v>
       </c>
       <c r="I174" s="4" t="str">
-        <f>VLOOKUP(G174,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G174,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J174" t="str">
-        <f>VLOOKUP(B174,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B174,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/2022_Mexico_City_ePrix_podium_-_Wehrlein.jpg/220px-2022_Mexico_City_ePrix_podium_-_Wehrlein.jpg</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -7865,11 +7866,11 @@
         <v>18</v>
       </c>
       <c r="I175" s="4" t="str">
-        <f>VLOOKUP(G175,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G175,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J175" t="str">
-        <f>VLOOKUP(B175,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B175,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -7899,12 +7900,12 @@
         <v>218</v>
       </c>
       <c r="I176" s="4" t="str">
-        <f>VLOOKUP(G176,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G176,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J176" t="str">
-        <f>VLOOKUP(B176,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B176,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -7933,11 +7934,11 @@
         <v>36</v>
       </c>
       <c r="I177" s="4" t="str">
-        <f>VLOOKUP(G177,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G177,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J177" t="str">
-        <f>VLOOKUP(B177,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B177,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Jenson_Button_Bahrain_2012_%28crop%29.jpg/220px-Jenson_Button_Bahrain_2012_%28crop%29.jpg</v>
       </c>
     </row>
@@ -7967,12 +7968,12 @@
         <v>165</v>
       </c>
       <c r="I178" s="4" t="str">
-        <f>VLOOKUP(G178,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G178,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J178" t="str">
-        <f>VLOOKUP(B178,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B178,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg/220px-2014_DTM_HockenheimringII_Paul_di_Resta_by_2eight_8SC5384.jpg</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -8001,12 +8002,12 @@
         <v>240</v>
       </c>
       <c r="I179" s="4" t="str">
-        <f>VLOOKUP(G179,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G179,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4c/Flag_of_Sweden.svg/1280px-Flag_of_Sweden.svg.png</v>
       </c>
       <c r="J179" t="str">
-        <f>VLOOKUP(B179,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B179,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Marcus_Ericsson_%282021%29.jpg/220px-Marcus_Ericsson_%282021%29.jpg</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -8035,12 +8036,12 @@
         <v>314</v>
       </c>
       <c r="I180" s="4" t="str">
-        <f>VLOOKUP(G180,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G180,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J180" t="str">
-        <f>VLOOKUP(B180,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B180,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -8069,12 +8070,12 @@
         <v>319</v>
       </c>
       <c r="I181" s="4" t="str">
-        <f>VLOOKUP(G181,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G181,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J181" t="str">
-        <f>VLOOKUP(B181,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B181,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8103,12 +8104,12 @@
         <v>193</v>
       </c>
       <c r="I182" s="4" t="str">
-        <f>VLOOKUP(G182,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G182,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J182" t="str">
-        <f>VLOOKUP(B182,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B182,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -8137,11 +8138,11 @@
         <v>63</v>
       </c>
       <c r="I183" s="4" t="str">
-        <f>VLOOKUP(G183,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G183,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J183" t="str">
-        <f>VLOOKUP(B183,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B183,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -8171,12 +8172,12 @@
         <v>324</v>
       </c>
       <c r="I184" s="4" t="str">
-        <f>VLOOKUP(G184,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G184,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Flag_of_New_Zealand.svg/2560px-Flag_of_New_Zealand.svg.png</v>
       </c>
       <c r="J184" t="str">
-        <f>VLOOKUP(B184,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B184,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Brendon_Hartley_Wiki.jpg/220px-Brendon_Hartley_Wiki.jpg</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8205,11 +8206,11 @@
         <v>400</v>
       </c>
       <c r="I185" s="4" t="str">
-        <f>VLOOKUP(G185,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G185,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J185" t="str">
-        <f>VLOOKUP(B185,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B185,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -8239,12 +8240,12 @@
         <v>245</v>
       </c>
       <c r="I186" s="4" t="str">
-        <f>VLOOKUP(G186,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G186,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J186" t="str">
-        <f>VLOOKUP(B186,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B186,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Daniil_Kvyat_USA_2017.jpg/240px-Daniil_Kvyat_USA_2017.jpg</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -8273,12 +8274,12 @@
         <v>256</v>
       </c>
       <c r="I187" s="4" t="str">
-        <f>VLOOKUP(G187,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G187,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J187" t="str">
-        <f>VLOOKUP(B187,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B187,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -8307,11 +8308,11 @@
         <v>108</v>
       </c>
       <c r="I188" s="4" t="str">
-        <f>VLOOKUP(G188,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G188,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J188" t="str">
-        <f>VLOOKUP(B188,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B188,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg/220px-Felipe_Massa_Le_Mans_Classic_2018_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -8341,12 +8342,12 @@
         <v>294</v>
       </c>
       <c r="I189" s="4" t="str">
-        <f>VLOOKUP(G189,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G189,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J189" t="str">
-        <f>VLOOKUP(B189,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B189,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Esteban_Ocon_2017_Malaysia_1.jpg/220px-Esteban_Ocon_2017_Malaysia_1.jpg</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -8375,12 +8376,12 @@
         <v>299</v>
       </c>
       <c r="I190" s="4" t="str">
-        <f>VLOOKUP(G190,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G190,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J190" t="str">
-        <f>VLOOKUP(B190,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B190,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6c/Jolyon_Palmer_2016_Malaysia.jpg/220px-Jolyon_Palmer_2016_Malaysia.jpg</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -8409,12 +8410,12 @@
         <v>182</v>
       </c>
       <c r="I191" s="4" t="str">
-        <f>VLOOKUP(G191,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G191,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J191" t="str">
-        <f>VLOOKUP(B191,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B191,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -8443,12 +8444,12 @@
         <v>203</v>
       </c>
       <c r="I192" s="4" t="str">
-        <f>VLOOKUP(G192,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G192,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J192" t="str">
-        <f>VLOOKUP(B192,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B192,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -8477,12 +8478,12 @@
         <v>187</v>
       </c>
       <c r="I193" s="4" t="str">
-        <f>VLOOKUP(G193,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G193,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J193" t="str">
-        <f>VLOOKUP(B193,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B193,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -8511,12 +8512,12 @@
         <v>281</v>
       </c>
       <c r="I194" s="4" t="str">
-        <f>VLOOKUP(G194,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G194,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J194" t="str">
-        <f>VLOOKUP(B194,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B194,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -8545,12 +8546,12 @@
         <v>330</v>
       </c>
       <c r="I195" s="4" t="str">
-        <f>VLOOKUP(G195,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G195,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J195" t="str">
-        <f>VLOOKUP(B195,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B195,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -8579,12 +8580,12 @@
         <v>304</v>
       </c>
       <c r="I196" s="4" t="str">
-        <f>VLOOKUP(G196,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G196,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
       </c>
       <c r="J196" t="str">
-        <f>VLOOKUP(B196,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
+        <f>VLOOKUP(B196,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Stoffel_Vandoorne_IAA_2019.jpg/180px-Stoffel_Vandoorne_IAA_2019.jpg</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -8613,12 +8614,12 @@
         <v>284</v>
       </c>
       <c r="I197" s="4" t="str">
-        <f>VLOOKUP(G197,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G197,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J197" t="str">
-        <f>VLOOKUP(B197,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B197,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -8647,12 +8648,12 @@
         <v>143</v>
       </c>
       <c r="I198" s="4" t="str">
-        <f>VLOOKUP(G198,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G198,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J198" t="str">
-        <f>VLOOKUP(B198,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B198,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -8681,12 +8682,12 @@
         <v>309</v>
       </c>
       <c r="I199" s="4" t="str">
-        <f>VLOOKUP(G199,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G199,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J199" t="str">
-        <f>VLOOKUP(B199,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B199,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/2022_Mexico_City_ePrix_podium_-_Wehrlein.jpg/220px-2022_Mexico_City_ePrix_podium_-_Wehrlein.jpg</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -8715,11 +8716,11 @@
         <v>18</v>
       </c>
       <c r="I200" s="4" t="str">
-        <f>VLOOKUP(G200,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G200,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J200" t="str">
-        <f>VLOOKUP(B200,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B200,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -8749,12 +8750,12 @@
         <v>218</v>
       </c>
       <c r="I201" s="4" t="str">
-        <f>VLOOKUP(G201,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G201,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J201" t="str">
-        <f>VLOOKUP(B201,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B201,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -8783,12 +8784,12 @@
         <v>240</v>
       </c>
       <c r="I202" s="4" t="str">
-        <f>VLOOKUP(G202,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G202,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4c/Flag_of_Sweden.svg/1280px-Flag_of_Sweden.svg.png</v>
       </c>
       <c r="J202" t="str">
-        <f>VLOOKUP(B202,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B202,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Marcus_Ericsson_%282021%29.jpg/220px-Marcus_Ericsson_%282021%29.jpg</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -8817,12 +8818,12 @@
         <v>314</v>
       </c>
       <c r="I203" s="4" t="str">
-        <f>VLOOKUP(G203,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G203,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J203" t="str">
-        <f>VLOOKUP(B203,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B203,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -8851,12 +8852,12 @@
         <v>193</v>
       </c>
       <c r="I204" s="4" t="str">
-        <f>VLOOKUP(G204,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G204,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J204" t="str">
-        <f>VLOOKUP(B204,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B204,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -8885,11 +8886,11 @@
         <v>63</v>
       </c>
       <c r="I205" s="4" t="str">
-        <f>VLOOKUP(G205,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G205,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J205" t="str">
-        <f>VLOOKUP(B205,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B205,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -8919,12 +8920,12 @@
         <v>324</v>
       </c>
       <c r="I206" s="4" t="str">
-        <f>VLOOKUP(G206,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G206,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Flag_of_New_Zealand.svg/2560px-Flag_of_New_Zealand.svg.png</v>
       </c>
       <c r="J206" t="str">
-        <f>VLOOKUP(B206,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B206,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Brendon_Hartley_Wiki.jpg/220px-Brendon_Hartley_Wiki.jpg</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -8953,11 +8954,11 @@
         <v>400</v>
       </c>
       <c r="I207" s="4" t="str">
-        <f>VLOOKUP(G207,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G207,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J207" t="str">
-        <f>VLOOKUP(B207,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B207,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -8987,12 +8988,12 @@
         <v>335</v>
       </c>
       <c r="I208" s="4" t="str">
-        <f>VLOOKUP(G208,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G208,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
       </c>
       <c r="J208" t="str">
-        <f>VLOOKUP(B208,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B208,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Charles-Leclerc.jpg/220px-Charles-Leclerc.jpg</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -9021,12 +9022,12 @@
         <v>256</v>
       </c>
       <c r="I209" s="4" t="str">
-        <f>VLOOKUP(G209,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G209,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J209" t="str">
-        <f>VLOOKUP(B209,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B209,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -9055,12 +9056,12 @@
         <v>294</v>
       </c>
       <c r="I210" s="4" t="str">
-        <f>VLOOKUP(G210,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G210,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J210" t="str">
-        <f>VLOOKUP(B210,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B210,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Esteban_Ocon_2017_Malaysia_1.jpg/220px-Esteban_Ocon_2017_Malaysia_1.jpg</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -9089,12 +9090,12 @@
         <v>182</v>
       </c>
       <c r="I211" s="4" t="str">
-        <f>VLOOKUP(G211,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G211,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J211" t="str">
-        <f>VLOOKUP(B211,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B211,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -9123,12 +9124,12 @@
         <v>203</v>
       </c>
       <c r="I212" s="4" t="str">
-        <f>VLOOKUP(G212,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G212,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J212" t="str">
-        <f>VLOOKUP(B212,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B212,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -9157,12 +9158,12 @@
         <v>187</v>
       </c>
       <c r="I213" s="4" t="str">
-        <f>VLOOKUP(G213,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G213,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J213" t="str">
-        <f>VLOOKUP(B213,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B213,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -9191,12 +9192,12 @@
         <v>281</v>
       </c>
       <c r="I214" s="4" t="str">
-        <f>VLOOKUP(G214,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G214,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J214" t="str">
-        <f>VLOOKUP(B214,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B214,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -9225,12 +9226,12 @@
         <v>340</v>
       </c>
       <c r="I215" s="4" t="str">
-        <f>VLOOKUP(G215,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G215,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J215" t="str">
-        <f>VLOOKUP(B215,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B215,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Sergey_Sirotkin_Moscow.jpg/220px-Sergey_Sirotkin_Moscow.jpg</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -9259,12 +9260,12 @@
         <v>330</v>
       </c>
       <c r="I216" s="4" t="str">
-        <f>VLOOKUP(G216,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G216,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J216" t="str">
-        <f>VLOOKUP(B216,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B216,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -9293,12 +9294,12 @@
         <v>304</v>
       </c>
       <c r="I217" s="4" t="str">
-        <f>VLOOKUP(G217,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G217,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
       </c>
       <c r="J217" t="str">
-        <f>VLOOKUP(B217,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
+        <f>VLOOKUP(B217,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Stoffel_Vandoorne_IAA_2019.jpg/180px-Stoffel_Vandoorne_IAA_2019.jpg</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -9327,12 +9328,12 @@
         <v>284</v>
       </c>
       <c r="I218" s="4" t="str">
-        <f>VLOOKUP(G218,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G218,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J218" t="str">
-        <f>VLOOKUP(B218,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B218,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -9361,12 +9362,12 @@
         <v>143</v>
       </c>
       <c r="I219" s="4" t="str">
-        <f>VLOOKUP(G219,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G219,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J219" t="str">
-        <f>VLOOKUP(B219,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B219,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -9395,11 +9396,12 @@
         <v>345</v>
       </c>
       <c r="I220" s="4" t="str">
-        <f>VLOOKUP(G220,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G220,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Flag_of_Thailand_%28non-standard_colours_3%29.svg/180px-Flag_of_Thailand_%28non-standard_colours_3%29.svg.png</v>
       </c>
-      <c r="J220" t="s">
-        <v>450</v>
+      <c r="J220" t="str">
+        <f>VLOOKUP(B220,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1f/Alex_albon_%2851383514844%29_%28cropped%29.jpg/210px-Alex_albon_%2851383514844%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -9428,12 +9430,12 @@
         <v>218</v>
       </c>
       <c r="I221" s="4" t="str">
-        <f>VLOOKUP(G221,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G221,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J221" t="str">
-        <f>VLOOKUP(B221,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B221,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -9462,12 +9464,12 @@
         <v>314</v>
       </c>
       <c r="I222" s="4" t="str">
-        <f>VLOOKUP(G222,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G222,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J222" t="str">
-        <f>VLOOKUP(B222,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B222,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -9496,12 +9498,12 @@
         <v>319</v>
       </c>
       <c r="I223" s="4" t="str">
-        <f>VLOOKUP(G223,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G223,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J223" t="str">
-        <f>VLOOKUP(B223,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B223,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -9530,12 +9532,12 @@
         <v>193</v>
       </c>
       <c r="I224" s="4" t="str">
-        <f>VLOOKUP(G224,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G224,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J224" t="str">
-        <f>VLOOKUP(B224,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B224,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -9564,11 +9566,11 @@
         <v>63</v>
       </c>
       <c r="I225" s="4" t="str">
-        <f>VLOOKUP(G225,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G225,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J225" t="str">
-        <f>VLOOKUP(B225,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B225,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -9598,11 +9600,11 @@
         <v>400</v>
       </c>
       <c r="I226" s="4" t="str">
-        <f>VLOOKUP(G226,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G226,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J226" t="str">
-        <f>VLOOKUP(B226,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B226,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -9632,11 +9634,11 @@
         <v>97</v>
       </c>
       <c r="I227" s="4" t="str">
-        <f>VLOOKUP(G227,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G227,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/12/Flag_of_Poland.svg/1200px-Flag_of_Poland.svg.png</v>
       </c>
       <c r="J227" t="str">
-        <f>VLOOKUP(B227,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B227,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
       </c>
     </row>
@@ -9666,12 +9668,12 @@
         <v>245</v>
       </c>
       <c r="I228" s="4" t="str">
-        <f>VLOOKUP(G228,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G228,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J228" t="str">
-        <f>VLOOKUP(B228,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B228,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Daniil_Kvyat_USA_2017.jpg/240px-Daniil_Kvyat_USA_2017.jpg</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -9700,12 +9702,12 @@
         <v>335</v>
       </c>
       <c r="I229" s="4" t="str">
-        <f>VLOOKUP(G229,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G229,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
       </c>
       <c r="J229" t="str">
-        <f>VLOOKUP(B229,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B229,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Charles-Leclerc.jpg/220px-Charles-Leclerc.jpg</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -9734,12 +9736,12 @@
         <v>256</v>
       </c>
       <c r="I230" s="4" t="str">
-        <f>VLOOKUP(G230,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G230,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J230" t="str">
-        <f>VLOOKUP(B230,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B230,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -9768,12 +9770,12 @@
         <v>350</v>
       </c>
       <c r="I231" s="4" t="str">
-        <f>VLOOKUP(G231,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G231,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J231" t="str">
-        <f>VLOOKUP(B231,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B231,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg/220px-Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -9802,12 +9804,12 @@
         <v>182</v>
       </c>
       <c r="I232" s="4" t="str">
-        <f>VLOOKUP(G232,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G232,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J232" t="str">
-        <f>VLOOKUP(B232,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B232,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -9836,12 +9838,12 @@
         <v>203</v>
       </c>
       <c r="I233" s="4" t="str">
-        <f>VLOOKUP(G233,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G233,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J233" t="str">
-        <f>VLOOKUP(B233,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B233,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -9870,12 +9872,12 @@
         <v>187</v>
       </c>
       <c r="I234" s="4" t="str">
-        <f>VLOOKUP(G234,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G234,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J234" t="str">
-        <f>VLOOKUP(B234,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B234,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -9904,12 +9906,12 @@
         <v>355</v>
       </c>
       <c r="I235" s="4" t="str">
-        <f>VLOOKUP(G235,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G235,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J235" t="str">
-        <f>VLOOKUP(B235,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B235,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg/235px-George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -9938,12 +9940,12 @@
         <v>281</v>
       </c>
       <c r="I236" s="4" t="str">
-        <f>VLOOKUP(G236,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G236,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J236" t="str">
-        <f>VLOOKUP(B236,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B236,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -9972,12 +9974,12 @@
         <v>330</v>
       </c>
       <c r="I237" s="4" t="str">
-        <f>VLOOKUP(G237,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G237,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J237" t="str">
-        <f>VLOOKUP(B237,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B237,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -10006,12 +10008,12 @@
         <v>284</v>
       </c>
       <c r="I238" s="4" t="str">
-        <f>VLOOKUP(G238,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G238,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J238" t="str">
-        <f>VLOOKUP(B238,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B238,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -10040,12 +10042,12 @@
         <v>143</v>
       </c>
       <c r="I239" s="4" t="str">
-        <f>VLOOKUP(G239,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G239,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J239" t="str">
-        <f>VLOOKUP(B239,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B239,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -10074,11 +10076,12 @@
         <v>360</v>
       </c>
       <c r="I240" s="4" t="str">
-        <f>VLOOKUP(G240,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
-      </c>
-      <c r="J240" t="s">
-        <v>492</v>
+        <f>VLOOKUP(G240,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
+      </c>
+      <c r="J240" t="str">
+        <f>VLOOKUP(B240,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Jack-aitken---tt-assen_43226091815_o_%28cropped%29.jpg/250px-Jack-aitken---tt-assen_43226091815_o_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -10107,11 +10110,12 @@
         <v>345</v>
       </c>
       <c r="I241" s="4" t="str">
-        <f>VLOOKUP(G241,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G241,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Flag_of_Thailand_%28non-standard_colours_3%29.svg/180px-Flag_of_Thailand_%28non-standard_colours_3%29.svg.png</v>
       </c>
-      <c r="J241" t="s">
-        <v>489</v>
+      <c r="J241" t="str">
+        <f>VLOOKUP(B241,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1f/Alex_albon_%2851383514844%29_%28cropped%29.jpg/210px-Alex_albon_%2851383514844%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -10140,12 +10144,12 @@
         <v>218</v>
       </c>
       <c r="I242" s="4" t="str">
-        <f>VLOOKUP(G242,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G242,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J242" t="str">
-        <f>VLOOKUP(B242,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B242,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -10174,12 +10178,12 @@
         <v>365</v>
       </c>
       <c r="I243" s="4" t="str">
-        <f>VLOOKUP(G243,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G243,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Brazil.svg/300px-Flag_of_Brazil.svg.png</v>
       </c>
       <c r="J243" t="str">
-        <f>VLOOKUP(B243,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B243,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c5/Pietro_and_Enzo_Fittipaldi_%28cropped%29_%281%29.jpg/180px-Pietro_and_Enzo_Fittipaldi_%28cropped%29_%281%29.jpg</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -10208,12 +10212,12 @@
         <v>314</v>
       </c>
       <c r="I244" s="4" t="str">
-        <f>VLOOKUP(G244,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G244,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J244" t="str">
-        <f>VLOOKUP(B244,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B244,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -10242,12 +10246,12 @@
         <v>319</v>
       </c>
       <c r="I245" s="4" t="str">
-        <f>VLOOKUP(G245,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G245,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J245" t="str">
-        <f>VLOOKUP(B245,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B245,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -10276,12 +10280,12 @@
         <v>193</v>
       </c>
       <c r="I246" s="4" t="str">
-        <f>VLOOKUP(G246,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G246,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J246" t="str">
-        <f>VLOOKUP(B246,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Timo_Glock_Canada_2011-Cropped.jpg/220px-Timo_Glock_Canada_2011-Cropped.jpg</v>
+        <f>VLOOKUP(B246,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Romain_Grosjean_%282021%29.jpg/220px-Romain_Grosjean_%282021%29.jpg</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -10310,11 +10314,11 @@
         <v>63</v>
       </c>
       <c r="I247" s="4" t="str">
-        <f>VLOOKUP(G247,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G247,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J247" t="str">
-        <f>VLOOKUP(B247,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B247,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -10344,11 +10348,11 @@
         <v>400</v>
       </c>
       <c r="I248" s="4" t="str">
-        <f>VLOOKUP(G248,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G248,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J248" t="str">
-        <f>VLOOKUP(B248,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B248,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -10378,12 +10382,12 @@
         <v>245</v>
       </c>
       <c r="I249" s="4" t="str">
-        <f>VLOOKUP(G249,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G249,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J249" t="str">
-        <f>VLOOKUP(B249,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B249,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Daniil_Kvyat_USA_2017.jpg/240px-Daniil_Kvyat_USA_2017.jpg</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -10412,12 +10416,12 @@
         <v>370</v>
       </c>
       <c r="I250" s="4" t="str">
-        <f>VLOOKUP(G250,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G250,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J250" t="str">
-        <f>VLOOKUP(B250,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B250,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/FIA_F1_Austria_2022_Nicholas_Latifi_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Nicholas_Latifi_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -10446,12 +10450,12 @@
         <v>335</v>
       </c>
       <c r="I251" s="4" t="str">
-        <f>VLOOKUP(G251,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G251,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
       </c>
       <c r="J251" t="str">
-        <f>VLOOKUP(B251,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B251,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Charles-Leclerc.jpg/220px-Charles-Leclerc.jpg</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -10480,12 +10484,12 @@
         <v>256</v>
       </c>
       <c r="I252" s="4" t="str">
-        <f>VLOOKUP(G252,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G252,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J252" t="str">
-        <f>VLOOKUP(B252,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B252,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -10514,12 +10518,12 @@
         <v>350</v>
       </c>
       <c r="I253" s="4" t="str">
-        <f>VLOOKUP(G253,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G253,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J253" t="str">
-        <f>VLOOKUP(B253,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B253,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg/220px-Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -10548,12 +10552,12 @@
         <v>294</v>
       </c>
       <c r="I254" s="4" t="str">
-        <f>VLOOKUP(G254,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G254,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J254" t="str">
-        <f>VLOOKUP(B254,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B254,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Esteban_Ocon_2017_Malaysia_1.jpg/220px-Esteban_Ocon_2017_Malaysia_1.jpg</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -10582,12 +10586,12 @@
         <v>182</v>
       </c>
       <c r="I255" s="4" t="str">
-        <f>VLOOKUP(G255,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G255,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J255" t="str">
-        <f>VLOOKUP(B255,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B255,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -10616,12 +10620,12 @@
         <v>203</v>
       </c>
       <c r="I256" s="4" t="str">
-        <f>VLOOKUP(G256,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G256,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J256" t="str">
-        <f>VLOOKUP(B256,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B256,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -10650,12 +10654,12 @@
         <v>187</v>
       </c>
       <c r="I257" s="4" t="str">
-        <f>VLOOKUP(G257,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G257,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J257" t="str">
-        <f>VLOOKUP(B257,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B257,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -10684,12 +10688,12 @@
         <v>355</v>
       </c>
       <c r="I258" s="4" t="str">
-        <f>VLOOKUP(G258,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G258,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J258" t="str">
-        <f>VLOOKUP(B258,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B258,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg/235px-George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -10718,12 +10722,12 @@
         <v>281</v>
       </c>
       <c r="I259" s="4" t="str">
-        <f>VLOOKUP(G259,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G259,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J259" t="str">
-        <f>VLOOKUP(B259,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B259,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -10752,12 +10756,12 @@
         <v>330</v>
       </c>
       <c r="I260" s="4" t="str">
-        <f>VLOOKUP(G260,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G260,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J260" t="str">
-        <f>VLOOKUP(B260,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B260,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -10786,12 +10790,12 @@
         <v>284</v>
       </c>
       <c r="I261" s="4" t="str">
-        <f>VLOOKUP(G261,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G261,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J261" t="str">
-        <f>VLOOKUP(B261,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B261,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -10820,12 +10824,12 @@
         <v>143</v>
       </c>
       <c r="I262" s="4" t="str">
-        <f>VLOOKUP(G262,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G262,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J262" t="str">
-        <f>VLOOKUP(B262,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B262,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -10854,11 +10858,11 @@
         <v>18</v>
       </c>
       <c r="I263" s="4" t="str">
-        <f>VLOOKUP(G263,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G263,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J263" t="str">
-        <f>VLOOKUP(B263,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B263,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -10888,12 +10892,12 @@
         <v>218</v>
       </c>
       <c r="I264" s="4" t="str">
-        <f>VLOOKUP(G264,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G264,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J264" t="str">
-        <f>VLOOKUP(B264,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B264,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -10922,12 +10926,12 @@
         <v>314</v>
       </c>
       <c r="I265" s="4" t="str">
-        <f>VLOOKUP(G265,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G265,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J265" t="str">
-        <f>VLOOKUP(B265,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B265,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -10956,12 +10960,12 @@
         <v>319</v>
       </c>
       <c r="I266" s="4" t="str">
-        <f>VLOOKUP(G266,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G266,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/0/03/Flag_of_Italy.svg</v>
       </c>
       <c r="J266" t="str">
-        <f>VLOOKUP(B266,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B266,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Giovinazzi_%2847200025952%29.jpg</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -10990,11 +10994,11 @@
         <v>63</v>
       </c>
       <c r="I267" s="4" t="str">
-        <f>VLOOKUP(G267,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G267,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J267" t="str">
-        <f>VLOOKUP(B267,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B267,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -11024,11 +11028,11 @@
         <v>97</v>
       </c>
       <c r="I268" s="4" t="str">
-        <f>VLOOKUP(G268,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G268,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/12/Flag_of_Poland.svg/1200px-Flag_of_Poland.svg.png</v>
       </c>
       <c r="J268" t="str">
-        <f>VLOOKUP(B268,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B268,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
       </c>
     </row>
@@ -11058,12 +11062,12 @@
         <v>370</v>
       </c>
       <c r="I269" s="4" t="str">
-        <f>VLOOKUP(G269,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G269,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J269" t="str">
-        <f>VLOOKUP(B269,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B269,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/FIA_F1_Austria_2022_Nicholas_Latifi_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Nicholas_Latifi_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -11092,12 +11096,12 @@
         <v>335</v>
       </c>
       <c r="I270" s="4" t="str">
-        <f>VLOOKUP(G270,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G270,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
       </c>
       <c r="J270" t="str">
-        <f>VLOOKUP(B270,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B270,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Charles-Leclerc.jpg/220px-Charles-Leclerc.jpg</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -11126,12 +11130,12 @@
         <v>375</v>
       </c>
       <c r="I271" s="4" t="str">
-        <f>VLOOKUP(G271,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G271,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/f/f3/Flag_of_Russia.svg</v>
       </c>
       <c r="J271" t="str">
-        <f>VLOOKUP(B271,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B271,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e8/%D0%9D%D0%B8%D0%BA%D0%B8%D1%82%D0%B0_%D0%9C%D0%B0%D0%B7%D0%B5%D0%BF%D0%B8%D0%BD_-_%D0%B8%D0%BD%D1%82%D0%B5%D1%80%D0%B2%D1%8C%D1%8E_-_2019%2C_02.jpg/200px-%D0%9D%D0%B8%D0%BA%D0%B8%D1%82%D0%B0_%D0%9C%D0%B0%D0%B7%D0%B5%D0%BF%D0%B8%D0%BD_-_%D0%B8%D0%BD%D1%82%D0%B5%D1%80%D0%B2%D1%8C%D1%8E_-_2019%2C_02.jpg</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -11160,12 +11164,12 @@
         <v>350</v>
       </c>
       <c r="I272" s="4" t="str">
-        <f>VLOOKUP(G272,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G272,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J272" t="str">
-        <f>VLOOKUP(B272,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B272,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg/220px-Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -11194,12 +11198,12 @@
         <v>294</v>
       </c>
       <c r="I273" s="4" t="str">
-        <f>VLOOKUP(G273,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G273,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J273" t="str">
-        <f>VLOOKUP(B273,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B273,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Esteban_Ocon_2017_Malaysia_1.jpg/220px-Esteban_Ocon_2017_Malaysia_1.jpg</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -11228,12 +11232,12 @@
         <v>182</v>
       </c>
       <c r="I274" s="4" t="str">
-        <f>VLOOKUP(G274,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G274,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J274" t="str">
-        <f>VLOOKUP(B274,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B274,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -11262,12 +11266,12 @@
         <v>203</v>
       </c>
       <c r="I275" s="4" t="str">
-        <f>VLOOKUP(G275,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G275,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J275" t="str">
-        <f>VLOOKUP(B275,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B275,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg/220px-F12019_Schloss_Gabelhofen_%2822%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -11296,12 +11300,12 @@
         <v>187</v>
       </c>
       <c r="I276" s="4" t="str">
-        <f>VLOOKUP(G276,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G276,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J276" t="str">
-        <f>VLOOKUP(B276,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B276,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -11330,12 +11334,12 @@
         <v>355</v>
       </c>
       <c r="I277" s="4" t="str">
-        <f>VLOOKUP(G277,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G277,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J277" t="str">
-        <f>VLOOKUP(B277,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B277,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg/235px-George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -11364,12 +11368,12 @@
         <v>281</v>
       </c>
       <c r="I278" s="4" t="str">
-        <f>VLOOKUP(G278,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G278,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J278" t="str">
-        <f>VLOOKUP(B278,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B278,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -11398,12 +11402,12 @@
         <v>378</v>
       </c>
       <c r="I279" s="4" t="str">
-        <f>VLOOKUP(G279,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G279,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J279" t="str">
-        <f>VLOOKUP(B279,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B279,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ab/Mick_Schumacher_-_2022236170142_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0047_-_B70I2057.jpg/220px-Mick_Schumacher_-_2022236170142_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0047_-_B70I2057.jpg</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -11432,12 +11436,12 @@
         <v>330</v>
       </c>
       <c r="I280" s="4" t="str">
-        <f>VLOOKUP(G280,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G280,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J280" t="str">
-        <f>VLOOKUP(B280,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B280,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -11466,12 +11470,12 @@
         <v>383</v>
       </c>
       <c r="I281" s="4" t="str">
-        <f>VLOOKUP(G281,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G281,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J281" t="str">
-        <f>VLOOKUP(B281,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
+        <f>VLOOKUP(B281,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/eb/2021_US_GP%2C_Tsunoda.jpg/220px-2021_US_GP%2C_Tsunoda.jpg</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -11500,12 +11504,12 @@
         <v>284</v>
       </c>
       <c r="I282" s="4" t="str">
-        <f>VLOOKUP(G282,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G282,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J282" t="str">
-        <f>VLOOKUP(B282,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B282,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -11534,12 +11538,12 @@
         <v>143</v>
       </c>
       <c r="I283" s="4" t="str">
-        <f>VLOOKUP(G283,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G283,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J283" t="str">
-        <f>VLOOKUP(B283,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B283,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -11568,11 +11572,12 @@
         <v>345</v>
       </c>
       <c r="I284" s="4" t="str">
-        <f>VLOOKUP(G284,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G284,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Flag_of_Thailand_%28non-standard_colours_3%29.svg/180px-Flag_of_Thailand_%28non-standard_colours_3%29.svg.png</v>
       </c>
-      <c r="J284" t="s">
-        <v>489</v>
+      <c r="J284" t="str">
+        <f>VLOOKUP(B284,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1f/Alex_albon_%2851383514844%29_%28cropped%29.jpg/210px-Alex_albon_%2851383514844%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -11601,11 +11606,11 @@
         <v>18</v>
       </c>
       <c r="I285" s="4" t="str">
-        <f>VLOOKUP(G285,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G285,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J285" t="str">
-        <f>VLOOKUP(B285,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B285,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Alonso_2016.jpg/240px-Alonso_2016.jpg</v>
       </c>
     </row>
@@ -11635,12 +11640,12 @@
         <v>218</v>
       </c>
       <c r="I286" s="4" t="str">
-        <f>VLOOKUP(G286,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G286,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Finland_%281918%E2%80%931920%29.svg/295px-Flag_of_Finland_%281918%E2%80%931920%29.svg.png</v>
       </c>
       <c r="J286" t="str">
-        <f>VLOOKUP(B286,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Rubens_Barrichello_2010_Malaysia.jpg/220px-Rubens_Barrichello_2010_Malaysia.jpg</v>
+        <f>VLOOKUP(B286,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg/220px-Valtteri_Bottas_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -11669,12 +11674,12 @@
         <v>388</v>
       </c>
       <c r="I287" s="4" t="str">
-        <f>VLOOKUP(G287,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G287,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J287" t="str">
-        <f>VLOOKUP(B287,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B287,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -11703,12 +11708,12 @@
         <v>314</v>
       </c>
       <c r="I288" s="4" t="str">
-        <f>VLOOKUP(G288,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G288,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J288" t="str">
-        <f>VLOOKUP(B288,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg/220px-Karun_Chandhok_Goodwood_Festival_of_Speed_2019_%2848242680701%29.jpg</v>
+        <f>VLOOKUP(B288,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Gasly_%2847200027932%29.jpg</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -11737,11 +11742,11 @@
         <v>63</v>
       </c>
       <c r="I289" s="4" t="str">
-        <f>VLOOKUP(G289,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G289,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J289" t="str">
-        <f>VLOOKUP(B289,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B289,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg/220px-Lewis_Hamilton_2022_S%C3%A3o_Paulo_Grand_Prix_%2852498120773%29_%28cropped%29.jpg</v>
       </c>
     </row>
@@ -11771,11 +11776,11 @@
         <v>73</v>
       </c>
       <c r="I290" s="4" t="str">
-        <f>VLOOKUP(G290,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G290,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J290" t="str">
-        <f>VLOOKUP(B290,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B290,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
       </c>
     </row>
@@ -11805,12 +11810,12 @@
         <v>370</v>
       </c>
       <c r="I291" s="4" t="str">
-        <f>VLOOKUP(G291,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G291,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J291" t="str">
-        <f>VLOOKUP(B291,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B291,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/FIA_F1_Austria_2022_Nicholas_Latifi_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Nicholas_Latifi_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -11839,12 +11844,12 @@
         <v>335</v>
       </c>
       <c r="I292" s="4" t="str">
-        <f>VLOOKUP(G292,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G292,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
       </c>
       <c r="J292" t="str">
-        <f>VLOOKUP(B292,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/90/2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg/220px-2019_Formula_One_tests_Barcelona%2C_Kubica_%2832309897777%29.jpg</v>
+        <f>VLOOKUP(B292,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Charles-Leclerc.jpg/220px-Charles-Leclerc.jpg</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -11873,12 +11878,12 @@
         <v>256</v>
       </c>
       <c r="I293" s="4" t="str">
-        <f>VLOOKUP(G293,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G293,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/199px-Flag_of_Denmark.svg.png</v>
       </c>
       <c r="J293" t="str">
-        <f>VLOOKUP(B293,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Nico_Hulkenberg_2016_Malaysia.jpg/220px-Nico_Hulkenberg_2016_Malaysia.jpg</v>
+        <f>VLOOKUP(B293,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/63/Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg/220px-Kevin_Magnussen%2C_2019_Formula_One_Tests_Barcelona_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -11907,12 +11912,12 @@
         <v>350</v>
       </c>
       <c r="I294" s="4" t="str">
-        <f>VLOOKUP(G294,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G294,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J294" t="str">
-        <f>VLOOKUP(B294,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B294,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg/220px-Lando_Norris%2C_British_GP_2022_%2852382611003%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -11941,12 +11946,12 @@
         <v>294</v>
       </c>
       <c r="I295" s="4" t="str">
-        <f>VLOOKUP(G295,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G295,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg/1200px-Flag_of_France_%281794%E2%80%931815%2C_1830%E2%80%931974%2C_2020%E2%80%93present%29.svg.png</v>
       </c>
       <c r="J295" t="str">
-        <f>VLOOKUP(B295,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B295,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Esteban_Ocon_2017_Malaysia_1.jpg/220px-Esteban_Ocon_2017_Malaysia_1.jpg</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -11975,12 +11980,12 @@
         <v>182</v>
       </c>
       <c r="I296" s="4" t="str">
-        <f>VLOOKUP(G296,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G296,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://lh3.googleusercontent.com/-h3whwywwtDY/VnDFClPqIfI/AAAAAAAALGw/Fp7FQudotyA/s600-Ic42/colores-bandera-de-mexico.jpg</v>
       </c>
       <c r="J296" t="str">
-        <f>VLOOKUP(B296,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B296,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Sergio_P%C3%A9rez_2019_%28cropped%29.jpg/220px-Sergio_P%C3%A9rez_2019_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -12009,12 +12014,12 @@
         <v>187</v>
       </c>
       <c r="I297" s="4" t="str">
-        <f>VLOOKUP(G297,Hoja2!$A$1:$B$28,2)</f>
+        <f>VLOOKUP(G297,Hoja2!$A$1:$B$28,2,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/1200px-Flag_of_Australia_%28converted%29.svg.png</v>
       </c>
       <c r="J297" t="str">
-        <f>VLOOKUP(B297,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B297,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/F12019_Schloss_Gabelhofen_%2818%29.jpg/220px-F12019_Schloss_Gabelhofen_%2818%29.jpg</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -12043,12 +12048,12 @@
         <v>355</v>
       </c>
       <c r="I298" s="4" t="str">
-        <f>VLOOKUP(G298,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G298,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Great_Britain_%281707%E2%80%931800%29.svg/220px-Flag_of_Great_Britain_%281707%E2%80%931800%29.svg.png</v>
       </c>
       <c r="J298" t="str">
-        <f>VLOOKUP(B298,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B298,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg/235px-George_Russell%2C_British_GP_2022_%2852381430692%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -12077,12 +12082,12 @@
         <v>281</v>
       </c>
       <c r="I299" s="4" t="str">
-        <f>VLOOKUP(G299,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/1280px-Flag_of_Monaco.svg.png</v>
+        <f>VLOOKUP(G299,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Bandera_de_Espa%C3%B1a.svg/640px-Bandera_de_Espa%C3%B1a.svg.png</v>
       </c>
       <c r="J299" t="str">
-        <f>VLOOKUP(B299,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B299,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg/250px-Formel12021-SchlossGabelhofen%2815%29_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -12111,12 +12116,12 @@
         <v>378</v>
       </c>
       <c r="I300" s="4" t="str">
-        <f>VLOOKUP(G300,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G300,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J300" t="str">
-        <f>VLOOKUP(B300,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B300,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ab/Mick_Schumacher_-_2022236170142_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0047_-_B70I2057.jpg/220px-Mick_Schumacher_-_2022236170142_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0047_-_B70I2057.jpg</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -12145,12 +12150,12 @@
         <v>330</v>
       </c>
       <c r="I301" s="4" t="str">
-        <f>VLOOKUP(G301,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G301,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
       </c>
       <c r="J301" t="str">
-        <f>VLOOKUP(B301,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B301,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg/220px-FIA_F1_Austria_2022_Lance_Stroll_%28cropped%29.jpg</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -12179,12 +12184,12 @@
         <v>383</v>
       </c>
       <c r="I302" s="4" t="str">
-        <f>VLOOKUP(G302,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G302,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Flag_of_Japan.svg/200px-Flag_of_Japan.svg.png</v>
       </c>
       <c r="J302" t="str">
-        <f>VLOOKUP(B302,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/Jarno-Trulli-2014-cropped.jpg/220px-Jarno-Trulli-2014-cropped.jpg</v>
+        <f>VLOOKUP(B302,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/eb/2021_US_GP%2C_Tsunoda.jpg/220px-2021_US_GP%2C_Tsunoda.jpg</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -12213,12 +12218,12 @@
         <v>284</v>
       </c>
       <c r="I303" s="4" t="str">
-        <f>VLOOKUP(G303,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G303,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/1280px-Flag_of_the_Netherlands.svg.png</v>
       </c>
       <c r="J303" t="str">
-        <f>VLOOKUP(B303,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Bruno_Senna_canada_2011.jpg/220px-Bruno_Senna_canada_2011.jpg</v>
+        <f>VLOOKUP(B303,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Max_Verstappen_2017_Malaysia_3.jpg/220px-Max_Verstappen_2017_Malaysia_3.jpg</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -12247,12 +12252,12 @@
         <v>143</v>
       </c>
       <c r="I304" s="4" t="str">
-        <f>VLOOKUP(G304,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/800px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+        <f>VLOOKUP(G304,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Germany_%28state%29.svg/200px-Flag_of_Germany_%28state%29.svg.png</v>
       </c>
       <c r="J304" t="str">
-        <f>VLOOKUP(B304,Hoja3!$B$1:$J$75,9)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Nyck_de_Vries_IAA_2019.jpg/220px-Nyck_de_Vries_IAA_2019.jpg</v>
+        <f>VLOOKUP(B304,Hoja3!$B$1:$J$75,9,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg/220px-Sebastian_Vettel_-_2022236172324_2022-08-24_Champions_for_Charity_-_Sven_-_1D_X_MK_II_-_0418_-_B70I2428.jpg</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -12281,11 +12286,11 @@
         <v>394</v>
       </c>
       <c r="I305" s="4" t="str">
-        <f>VLOOKUP(G305,Hoja2!$A$1:$B$28,2)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/2363px-Flag_of_Belgium.svg.png</v>
+        <f>VLOOKUP(G305,Hoja2!$A$1:$B$28,2,FALSE)</f>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg/220px-Zeng_Liansong%27s_proposal_for_the_PRC_flag.svg.png</v>
       </c>
       <c r="J305" t="str">
-        <f>VLOOKUP(B305,Hoja3!$B$1:$J$75,9)</f>
+        <f>VLOOKUP(B305,Hoja3!$B$1:$J$75,9,FALSE)</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ed/Zhou_Guanyu_at_the_2022_Austrian_Grand_Prix.jpg/220px-Zhou_Guanyu_at_the_2022_Austrian_Grand_Prix.jpg</v>
       </c>
     </row>
@@ -12605,7 +12610,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12742,7 +12747,7 @@
       <c r="A17" t="s">
         <v>181</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -12839,6 +12844,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{53E8870A-FC84-4749-9E7A-A2CCDD037826}"/>
     <hyperlink ref="B14" r:id="rId2" xr:uid="{5C481CE6-6CD8-4B45-BC83-84D8C6F40AE5}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{0DAD1D41-7470-41AE-9490-BD9381CDEB86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12848,8 +12854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B28A0-D533-4177-A3DF-3CE11699D991}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
